--- a/biology/Zoologie/Chiridotidae/Chiridotidae.xlsx
+++ b/biology/Zoologie/Chiridotidae/Chiridotidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chiridotidae sont une famille d'holothuries (concombre de mer), de l'ordre des Apodida.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre compte de petites holothuries vagiles de forme allongée, dont la bouche est entourée de tentacules buccaux digités (parfois pelto-digités) et charnus (portant 3-10 digitations de chaque côté)[2]. Elles n'ont ni podia ni canaux radiaux. Elles n'ont pas non plus d'appareil respiratoire complexe comme les autres holothuries, et respirent directement à travers leur peau. Leurs ossicules sont majoritairement en forme de roues à 6 rayons, mais aussi en "C", en courts bâtonnets ou en granules miliaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre compte de petites holothuries vagiles de forme allongée, dont la bouche est entourée de tentacules buccaux digités (parfois pelto-digités) et charnus (portant 3-10 digitations de chaque côté). Elles n'ont ni podia ni canaux radiaux. Elles n'ont pas non plus d'appareil respiratoire complexe comme les autres holothuries, et respirent directement à travers leur peau. Leurs ossicules sont majoritairement en forme de roues à 6 rayons, mais aussi en "C", en courts bâtonnets ou en granules miliaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (2 mai 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (2 mai 2014) :
 genre Archedota O'Loughlin in O'Loughlin &amp; VandenSpiegel, 2007 -- 1 espèce
 genre Chantalia Martins &amp; Souto 2020 -- 1 espèce
 genre Chiridota Eschscholtz, 1829 -- 33 espèces
